--- a/addons/jxh__import_accountmove/sample/20211202odoo_銷售訂單範本.xlsx
+++ b/addons/jxh__import_accountmove/sample/20211202odoo_銷售訂單範本.xlsx
@@ -1,354 +1,360 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\odoo\odoo15\addons\jxh__import_accountmove\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CF26A-F8E9-41B3-9CDC-B6C5188EBFA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>-%</t>
+  </si>
+  <si>
+    <t>實際小計</t>
+  </si>
+  <si>
+    <t>2021/11/02</t>
+  </si>
+  <si>
+    <t>14:20:03</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>--0000</t>
+  </si>
+  <si>
+    <t>顧客</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>艾毛寶</t>
+  </si>
+  <si>
+    <t>RTAAGN001022</t>
+  </si>
+  <si>
+    <t>14:20:27</t>
+  </si>
+  <si>
+    <t>000046</t>
+  </si>
+  <si>
+    <t>運費</t>
+  </si>
+  <si>
+    <t>RTAAGN001023</t>
+  </si>
+  <si>
+    <t>2021/11/06</t>
+  </si>
+  <si>
+    <t>18:18:58</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>頂太豐</t>
+  </si>
+  <si>
+    <t>RTAAGN001024</t>
+  </si>
+  <si>
+    <t>18:19:25</t>
+  </si>
+  <si>
+    <t>r02</t>
+  </si>
+  <si>
+    <t>頂太豐二瓶優惠組</t>
+  </si>
+  <si>
+    <t>RTAAGN001025</t>
+  </si>
+  <si>
+    <t>2021/11/08</t>
+  </si>
+  <si>
+    <t>11:26:21</t>
+  </si>
+  <si>
+    <t>RTAAGN001026</t>
+  </si>
+  <si>
+    <t>11:26:47</t>
+  </si>
+  <si>
+    <t>RTAAGN001027</t>
+  </si>
+  <si>
+    <t>11:27:05</t>
+  </si>
+  <si>
+    <t>RTAAGN001028</t>
+  </si>
+  <si>
+    <t>2021/11/09</t>
+  </si>
+  <si>
+    <t>22:04:21</t>
+  </si>
+  <si>
+    <t>RTAAGN001029</t>
+  </si>
+  <si>
+    <t>2021/11/10</t>
+  </si>
+  <si>
+    <t>11:47:35</t>
+  </si>
+  <si>
+    <t>J01</t>
+  </si>
+  <si>
+    <t>罩敏</t>
+  </si>
+  <si>
+    <t>RTAAGN001030</t>
+  </si>
+  <si>
+    <t>2021/11/11</t>
+  </si>
+  <si>
+    <t>10:10:06</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>少賴皮</t>
+  </si>
+  <si>
+    <t>RTAAGN001031</t>
+  </si>
+  <si>
+    <t>2021/11/12</t>
+  </si>
+  <si>
+    <t>08:34:40</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>貓罐頭</t>
+  </si>
+  <si>
+    <t>RTAAGN001032</t>
+  </si>
+  <si>
+    <t>12:22:20</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>光明頂</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>千代田</t>
+  </si>
+  <si>
+    <t>RTAAGN001033</t>
+  </si>
+  <si>
+    <t>2021/11/15</t>
+  </si>
+  <si>
+    <t>14:41:28</t>
+  </si>
+  <si>
+    <t>RTAAGN001034</t>
+  </si>
+  <si>
+    <t>2021/11/18</t>
+  </si>
+  <si>
+    <t>10:59:12</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>草上飛plus</t>
+  </si>
+  <si>
+    <t>c01</t>
+  </si>
+  <si>
+    <t>求千尺</t>
+  </si>
+  <si>
+    <t>RTAAGN001035</t>
+  </si>
+  <si>
+    <t>11:06:20</t>
+  </si>
+  <si>
+    <t>g05</t>
+  </si>
+  <si>
+    <t>金罩敏五盒</t>
+  </si>
+  <si>
+    <t>RTAAGN001036</t>
+  </si>
+  <si>
+    <t>2021/11/19</t>
+  </si>
+  <si>
+    <t>12:37:40</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>賽西施</t>
+  </si>
+  <si>
+    <t>RTAAGN001037</t>
+  </si>
+  <si>
+    <t>2021/11/20</t>
+  </si>
+  <si>
+    <t>20:19:10</t>
+  </si>
+  <si>
+    <t>RTAAGN001038</t>
+  </si>
+  <si>
+    <t>2021/11/22</t>
+  </si>
+  <si>
+    <t>09:00:47</t>
+  </si>
+  <si>
+    <t>RTAAGN001039</t>
+  </si>
+  <si>
+    <t>2021/11/25</t>
+  </si>
+  <si>
+    <t>11:59:20</t>
+  </si>
+  <si>
+    <t>RTAAGN001040</t>
+  </si>
+  <si>
+    <t>2021/11/29</t>
+  </si>
+  <si>
+    <t>15:51:16</t>
+  </si>
+  <si>
+    <t>RTAAGN001041</t>
+  </si>
+  <si>
+    <t>2021/11/30</t>
+  </si>
+  <si>
+    <t>10:10:33</t>
+  </si>
+  <si>
+    <t>k02</t>
+  </si>
+  <si>
+    <t>甘寧</t>
+  </si>
+  <si>
+    <t>RTAAGN001042</t>
+  </si>
+  <si>
+    <t>13:37:39</t>
+  </si>
+  <si>
+    <t>稅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發票金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTAAGN001021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>產品編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>單價</t>
-  </si>
-  <si>
-    <t>-%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小計</t>
-  </si>
-  <si>
-    <t>實際小計</t>
-  </si>
-  <si>
-    <t>RTAAGN001021</t>
-  </si>
-  <si>
-    <t>2021/11/02</t>
-  </si>
-  <si>
-    <t>14:20:03</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>--0000</t>
-  </si>
-  <si>
-    <t>顧客</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>艾毛寶</t>
-  </si>
-  <si>
-    <t>RTAAGN001022</t>
-  </si>
-  <si>
-    <t>14:20:27</t>
-  </si>
-  <si>
-    <t>000046</t>
-  </si>
-  <si>
-    <t>運費</t>
-  </si>
-  <si>
-    <t>RTAAGN001023</t>
-  </si>
-  <si>
-    <t>2021/11/06</t>
-  </si>
-  <si>
-    <t>18:18:58</t>
-  </si>
-  <si>
-    <t>R01</t>
-  </si>
-  <si>
-    <t>頂太豐</t>
-  </si>
-  <si>
-    <t>RTAAGN001024</t>
-  </si>
-  <si>
-    <t>18:19:25</t>
-  </si>
-  <si>
-    <t>r02</t>
-  </si>
-  <si>
-    <t>頂太豐二瓶優惠組</t>
-  </si>
-  <si>
-    <t>RTAAGN001025</t>
-  </si>
-  <si>
-    <t>2021/11/08</t>
-  </si>
-  <si>
-    <t>11:26:21</t>
-  </si>
-  <si>
-    <t>RTAAGN001026</t>
-  </si>
-  <si>
-    <t>11:26:47</t>
-  </si>
-  <si>
-    <t>RTAAGN001027</t>
-  </si>
-  <si>
-    <t>11:27:05</t>
-  </si>
-  <si>
-    <t>RTAAGN001028</t>
-  </si>
-  <si>
-    <t>2021/11/09</t>
-  </si>
-  <si>
-    <t>22:04:21</t>
-  </si>
-  <si>
-    <t>RTAAGN001029</t>
-  </si>
-  <si>
-    <t>2021/11/10</t>
-  </si>
-  <si>
-    <t>11:47:35</t>
-  </si>
-  <si>
-    <t>J01</t>
-  </si>
-  <si>
-    <t>罩敏</t>
-  </si>
-  <si>
-    <t>RTAAGN001030</t>
-  </si>
-  <si>
-    <t>2021/11/11</t>
-  </si>
-  <si>
-    <t>10:10:06</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>少賴皮</t>
-  </si>
-  <si>
-    <t>RTAAGN001031</t>
-  </si>
-  <si>
-    <t>2021/11/12</t>
-  </si>
-  <si>
-    <t>08:34:40</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>貓罐頭</t>
-  </si>
-  <si>
-    <t>RTAAGN001032</t>
-  </si>
-  <si>
-    <t>12:22:20</t>
-  </si>
-  <si>
-    <t>E01</t>
-  </si>
-  <si>
-    <t>光明頂</t>
-  </si>
-  <si>
-    <t>000050</t>
-  </si>
-  <si>
-    <t>千代田</t>
-  </si>
-  <si>
-    <t>RTAAGN001033</t>
-  </si>
-  <si>
-    <t>2021/11/15</t>
-  </si>
-  <si>
-    <t>14:41:28</t>
-  </si>
-  <si>
-    <t>RTAAGN001034</t>
-  </si>
-  <si>
-    <t>2021/11/18</t>
-  </si>
-  <si>
-    <t>10:59:12</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>草上飛plus</t>
-  </si>
-  <si>
-    <t>c01</t>
-  </si>
-  <si>
-    <t>求千尺</t>
-  </si>
-  <si>
-    <t>RTAAGN001035</t>
-  </si>
-  <si>
-    <t>11:06:20</t>
-  </si>
-  <si>
-    <t>g05</t>
-  </si>
-  <si>
-    <t>金罩敏五盒</t>
-  </si>
-  <si>
-    <t>RTAAGN001036</t>
-  </si>
-  <si>
-    <t>2021/11/19</t>
-  </si>
-  <si>
-    <t>12:37:40</t>
-  </si>
-  <si>
-    <t>S01</t>
-  </si>
-  <si>
-    <t>賽西施</t>
-  </si>
-  <si>
-    <t>RTAAGN001037</t>
-  </si>
-  <si>
-    <t>2021/11/20</t>
-  </si>
-  <si>
-    <t>20:19:10</t>
-  </si>
-  <si>
-    <t>RTAAGN001038</t>
-  </si>
-  <si>
-    <t>2021/11/22</t>
-  </si>
-  <si>
-    <t>09:00:47</t>
-  </si>
-  <si>
-    <t>RTAAGN001039</t>
-  </si>
-  <si>
-    <t>2021/11/25</t>
-  </si>
-  <si>
-    <t>11:59:20</t>
-  </si>
-  <si>
-    <t>RTAAGN001040</t>
-  </si>
-  <si>
-    <t>2021/11/29</t>
-  </si>
-  <si>
-    <t>15:51:16</t>
-  </si>
-  <si>
-    <t>RTAAGN001041</t>
-  </si>
-  <si>
-    <t>2021/11/30</t>
-  </si>
-  <si>
-    <t>10:10:33</t>
-  </si>
-  <si>
-    <t>k02</t>
-  </si>
-  <si>
-    <t>甘寧</t>
-  </si>
-  <si>
-    <t>RTAAGN001042</t>
-  </si>
-  <si>
-    <t>13:37:39</t>
-  </si>
-  <si>
-    <t>總金額</t>
-  </si>
-  <si>
-    <t>報表摘要:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="ARIAL"/>
-      <family val="0"/>
       <charset val="1"/>
-      <color rgb="00000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="ARIAL"/>
-      <family val="0"/>
-      <charset val="1"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="ARIAL"/>
-      <family val="0"/>
-      <charset val="1"/>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ARIAL"/>
-      <family val="0"/>
-      <charset val="1"/>
-      <color rgb="00000000"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ARIAL"/>
-      <family val="0"/>
-      <charset val="1"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,148 +362,424 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
-      <alignment indent="0" shrinkToFit="false" wrapText="false" textRotation="0" readingOrder="0" vertical="top" horizontal="general"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/Sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M64"/>
-  <sheetFormatPr defaultColWidth="6.86" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="6.86" style="0" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9835" customFormat="1" ht="12.75" customHeight="1" outlineLevel="0">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" outlineLevel="0">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>3600</v>
@@ -509,12 +791,12 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -532,24 +814,24 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
         <v>1260</v>
@@ -561,12 +843,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -584,12 +866,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -607,24 +889,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>3080</v>
@@ -636,12 +918,12 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -659,12 +941,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -682,24 +964,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2">
         <v>5800</v>
@@ -711,12 +993,12 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -734,24 +1016,24 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2">
         <v>5800</v>
@@ -763,12 +1045,12 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -786,24 +1068,24 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
         <v>3080</v>
@@ -815,12 +1097,12 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -838,12 +1120,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -861,24 +1143,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="17" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
         <v>3080</v>
@@ -890,12 +1172,12 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -913,12 +1195,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -936,24 +1218,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
         <v>1260</v>
@@ -965,12 +1247,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -988,12 +1270,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1011,24 +1293,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2">
         <v>3260</v>
@@ -1040,12 +1322,12 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1063,12 +1345,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1086,24 +1368,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="26" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2">
         <v>450</v>
@@ -1115,12 +1397,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -1138,24 +1420,24 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="28" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2">
         <v>195</v>
@@ -1167,12 +1449,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2">
         <v>15</v>
@@ -1190,24 +1472,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="30" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2">
         <v>6800</v>
@@ -1219,12 +1501,12 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="31" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1242,12 +1524,12 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="32" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -1265,24 +1547,24 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="33" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G33" s="2">
         <v>2460</v>
@@ -1294,12 +1576,12 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
@@ -1314,15 +1596,15 @@
         <v>2400</v>
       </c>
       <c r="G34" s="2">
-        <v>2371.70731707317</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>2371.7073170731701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -1337,27 +1619,27 @@
         <v>60</v>
       </c>
       <c r="G35" s="2">
-        <v>59.2926829268293</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>59.292682926829301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G36" s="2">
         <v>8950</v>
@@ -1369,12 +1651,12 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -1389,15 +1671,15 @@
         <v>1200</v>
       </c>
       <c r="G37" s="2">
-        <v>1099.44134078212</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>1099.4413407821201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -1412,15 +1694,15 @@
         <v>450</v>
       </c>
       <c r="G38" s="2">
-        <v>412.290502793296</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>412.29050279329601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -1435,15 +1717,15 @@
         <v>2000</v>
       </c>
       <c r="G39" s="2">
-        <v>1832.40223463687</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>1832.4022346368699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -1461,12 +1743,12 @@
         <v>2931.84357541899</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1481,15 +1763,15 @@
         <v>700</v>
       </c>
       <c r="G41" s="2">
-        <v>641.340782122905</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1" outlineLevel="0">
+        <v>641.34078212290501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1507,24 +1789,24 @@
         <v>1282.68156424581</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G43" s="2">
         <v>11500</v>
@@ -1536,12 +1818,12 @@
         <v>10763</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1559,24 +1841,24 @@
         <v>10763</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G45" s="2">
         <v>1260</v>
@@ -1588,12 +1870,12 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -1611,12 +1893,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -1634,24 +1916,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G48" s="2">
         <v>4050</v>
@@ -1663,12 +1945,12 @@
         <v>3879</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
@@ -1686,12 +1968,12 @@
         <v>3448</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1709,24 +1991,24 @@
         <v>431</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G51" s="2">
         <v>3255</v>
@@ -1738,12 +2020,12 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="52" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1761,12 +2043,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="53" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -1784,24 +2066,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="54" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G54" s="2">
         <v>6000</v>
@@ -1813,12 +2095,12 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="55" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2">
         <v>5</v>
@@ -1836,24 +2118,24 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="56" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2">
         <v>5800</v>
@@ -1865,12 +2147,12 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="57" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1888,24 +2170,24 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="58" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G58" s="2">
         <v>5060</v>
@@ -1917,12 +2199,12 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="59" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2">
         <v>2</v>
@@ -1940,12 +2222,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="60" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1963,24 +2245,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="61" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G61" s="2">
         <v>3080</v>
@@ -1992,12 +2274,12 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="62" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -2015,12 +2297,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1" outlineLevel="0">
+    <row r="63" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -2038,49 +2320,24 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1" outlineLevel="0">
-      <c r="A64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="2">
-        <v>86038</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="2">
-        <v>66</v>
-      </c>
-      <c r="J64" s="2">
-        <v>71998</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2">
-        <v>89080</v>
-      </c>
-      <c r="M64" s="2">
-        <v>86038</v>
-      </c>
+    <row r="64" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>